--- a/src/test/resources/TestData/Odata.xlsx
+++ b/src/test/resources/TestData/Odata.xlsx
@@ -38,7 +38,7 @@
     <t>Password</t>
   </si>
   <si>
-    <t>admin12356</t>
+    <t>admin123</t>
   </si>
   <si>
     <t>FirstName</t>
